--- a/iC3_field_school_2024/scripts/python/notebooks/inspect/binned_RBR_profiles.xlsx
+++ b/iC3_field_school_2024/scripts/python/notebooks/inspect/binned_RBR_profiles.xlsx
@@ -6489,7 +6489,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
@@ -6531,7 +6531,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
@@ -6573,7 +6573,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
@@ -6615,7 +6615,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" s="2" t="n">
@@ -6657,7 +6657,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
@@ -6699,7 +6699,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" s="2" t="n">
@@ -6741,7 +6741,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
@@ -6783,7 +6783,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
@@ -6825,7 +6825,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" s="2" t="n">
@@ -6867,7 +6867,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
@@ -6909,7 +6909,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
@@ -6951,7 +6951,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
@@ -6993,7 +6993,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="n">
@@ -7035,7 +7035,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="n">
@@ -7077,7 +7077,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="n">
@@ -7119,7 +7119,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" s="2" t="n">
@@ -7161,7 +7161,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" s="2" t="n">
@@ -7203,7 +7203,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" s="2" t="n">
@@ -7245,7 +7245,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" s="2" t="n">
@@ -7287,7 +7287,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" s="2" t="n">
@@ -7329,7 +7329,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" s="2" t="n">
@@ -7371,7 +7371,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" s="2" t="n">
@@ -7413,7 +7413,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" s="2" t="n">
@@ -7455,7 +7455,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" s="2" t="n">
@@ -7497,7 +7497,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" s="2" t="n">
@@ -7539,7 +7539,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" s="2" t="n">
@@ -7581,7 +7581,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" s="2" t="n">
@@ -7623,7 +7623,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" s="2" t="n">
@@ -7665,7 +7665,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" s="2" t="n">
@@ -7707,7 +7707,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" s="2" t="n">
@@ -7749,7 +7749,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" s="2" t="n">
@@ -7791,7 +7791,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" s="2" t="n">
@@ -7833,7 +7833,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" s="2" t="n">
@@ -7875,7 +7875,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" s="2" t="n">
@@ -7917,7 +7917,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" s="2" t="n">
@@ -7959,7 +7959,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" s="2" t="n">
@@ -8001,7 +8001,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" s="2" t="n">
@@ -8043,7 +8043,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" s="2" t="n">
@@ -8085,7 +8085,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" s="2" t="n">
@@ -8127,7 +8127,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
@@ -12150,7 +12150,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
@@ -12192,7 +12192,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
@@ -12234,7 +12234,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
@@ -12276,7 +12276,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" s="2" t="n">
@@ -12318,7 +12318,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
@@ -12360,7 +12360,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" s="2" t="n">
@@ -12402,7 +12402,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
@@ -12444,7 +12444,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
@@ -12486,7 +12486,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" s="2" t="n">
@@ -12528,7 +12528,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
@@ -12570,7 +12570,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
@@ -12612,7 +12612,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
@@ -12654,7 +12654,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="n">
@@ -12696,7 +12696,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="n">
@@ -12738,7 +12738,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="n">
@@ -12780,7 +12780,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" s="2" t="n">
@@ -12822,7 +12822,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" s="2" t="n">
@@ -12864,7 +12864,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" s="2" t="n">
@@ -12906,7 +12906,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" s="2" t="n">
@@ -12948,7 +12948,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" s="2" t="n">
@@ -12990,7 +12990,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" s="2" t="n">
@@ -13032,7 +13032,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" s="2" t="n">
@@ -13074,7 +13074,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" s="2" t="n">
@@ -13116,7 +13116,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" s="2" t="n">
@@ -13158,7 +13158,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" s="2" t="n">
@@ -13200,7 +13200,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" s="2" t="n">
@@ -13242,7 +13242,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" s="2" t="n">
@@ -13284,7 +13284,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" s="2" t="n">
@@ -13326,7 +13326,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" s="2" t="n">
@@ -13368,7 +13368,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" s="2" t="n">
@@ -13410,7 +13410,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" s="2" t="n">
@@ -13452,7 +13452,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" s="2" t="n">
@@ -13494,7 +13494,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" s="2" t="n">
@@ -13536,7 +13536,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" s="2" t="n">
@@ -13578,7 +13578,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" s="2" t="n">
@@ -13620,7 +13620,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" s="2" t="n">
@@ -13662,7 +13662,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" s="2" t="n">
@@ -13704,7 +13704,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" s="2" t="n">
@@ -13746,7 +13746,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" s="2" t="n">
@@ -13788,7 +13788,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" s="2" t="n">
@@ -13830,7 +13830,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" s="2" t="n">
@@ -13872,7 +13872,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" s="2" t="n">
@@ -13914,7 +13914,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" s="2" t="n">
@@ -13956,7 +13956,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" s="2" t="n">
@@ -13998,7 +13998,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
@@ -19365,7 +19365,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
@@ -19407,7 +19407,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
@@ -19449,7 +19449,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
@@ -19491,7 +19491,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" s="2" t="n">
@@ -19533,7 +19533,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
@@ -19575,7 +19575,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" s="2" t="n">
@@ -19617,7 +19617,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
@@ -19659,7 +19659,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
@@ -19701,7 +19701,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" s="2" t="n">
@@ -19743,7 +19743,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
@@ -19785,7 +19785,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
@@ -19827,7 +19827,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
@@ -19869,7 +19869,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="n">
@@ -19911,7 +19911,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="n">
@@ -19953,7 +19953,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="n">
@@ -19995,7 +19995,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" s="2" t="n">
@@ -20037,7 +20037,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" s="2" t="n">
@@ -20079,7 +20079,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" s="2" t="n">
@@ -20121,7 +20121,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" s="2" t="n">
@@ -20163,7 +20163,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" s="2" t="n">
@@ -20205,7 +20205,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" s="2" t="n">
@@ -20247,7 +20247,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" s="2" t="n">
@@ -20289,7 +20289,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" s="2" t="n">
@@ -20331,7 +20331,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" s="2" t="n">
@@ -20373,7 +20373,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" s="2" t="n">
@@ -20415,7 +20415,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" s="2" t="n">
@@ -20457,7 +20457,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" s="2" t="n">
@@ -20499,7 +20499,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" s="2" t="n">
@@ -20541,7 +20541,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" s="2" t="n">
@@ -20583,7 +20583,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" s="2" t="n">
@@ -20625,7 +20625,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" s="2" t="n">
@@ -20667,7 +20667,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" s="2" t="n">
@@ -20709,7 +20709,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" s="2" t="n">
@@ -20751,7 +20751,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" s="2" t="n">
@@ -20793,7 +20793,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" s="2" t="n">
@@ -20835,7 +20835,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" s="2" t="n">
@@ -20877,7 +20877,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" s="2" t="n">
@@ -20919,7 +20919,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" s="2" t="n">
@@ -20961,7 +20961,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" s="2" t="n">
@@ -21003,7 +21003,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" s="2" t="n">
@@ -21045,7 +21045,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" s="2" t="n">
@@ -21087,7 +21087,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" s="2" t="n">
@@ -21129,7 +21129,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" s="2" t="n">
@@ -21171,7 +21171,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" s="2" t="n">
@@ -21213,7 +21213,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" s="2" t="n">
@@ -21255,7 +21255,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" s="2" t="n">
@@ -21297,7 +21297,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" s="2" t="n">
@@ -21339,7 +21339,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" s="2" t="n">
@@ -21381,7 +21381,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" s="2" t="n">
@@ -21423,7 +21423,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" s="2" t="n">
@@ -21465,7 +21465,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" s="2" t="n">
@@ -21507,7 +21507,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" s="2" t="n">
@@ -21549,7 +21549,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" s="2" t="n">
@@ -21591,7 +21591,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" s="2" t="n">
@@ -21633,7 +21633,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" s="2" t="n">
@@ -21675,7 +21675,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" s="2" t="n">
@@ -21717,7 +21717,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" s="2" t="n">
@@ -21759,7 +21759,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" s="2" t="n">
@@ -21801,7 +21801,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" s="2" t="n">
@@ -21843,7 +21843,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" s="2" t="n">
@@ -21885,7 +21885,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
@@ -32401,7 +32401,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
@@ -32443,7 +32443,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
@@ -32485,7 +32485,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
@@ -32527,7 +32527,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" s="2" t="n">
@@ -32569,7 +32569,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
@@ -32611,7 +32611,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" s="2" t="n">
@@ -32653,7 +32653,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
@@ -32695,7 +32695,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
@@ -32737,7 +32737,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" s="2" t="n">
@@ -32779,7 +32779,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
@@ -32821,7 +32821,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
@@ -32863,7 +32863,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
@@ -32905,7 +32905,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="n">
@@ -32947,7 +32947,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="n">
@@ -32989,7 +32989,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="n">
@@ -33031,7 +33031,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" s="2" t="n">
@@ -33073,7 +33073,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" s="2" t="n">
@@ -33115,7 +33115,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" s="2" t="n">
@@ -33157,7 +33157,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" s="2" t="n">
@@ -33199,7 +33199,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" s="2" t="n">
@@ -33241,7 +33241,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" s="2" t="n">
@@ -33283,7 +33283,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" s="2" t="n">
@@ -33325,7 +33325,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" s="2" t="n">
@@ -33367,7 +33367,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" s="2" t="n">
@@ -33409,7 +33409,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" s="2" t="n">
@@ -33451,7 +33451,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" s="2" t="n">
@@ -33493,7 +33493,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" s="2" t="n">
@@ -33535,7 +33535,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" s="2" t="n">
@@ -33577,7 +33577,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" s="2" t="n">
@@ -33619,7 +33619,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" s="2" t="n">
@@ -33661,7 +33661,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" s="2" t="n">
@@ -33703,7 +33703,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" s="2" t="n">
@@ -33745,7 +33745,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" s="2" t="n">
@@ -33787,7 +33787,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" s="2" t="n">
@@ -33829,7 +33829,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" s="2" t="n">
@@ -33871,7 +33871,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" s="2" t="n">
@@ -33913,7 +33913,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" s="2" t="n">
@@ -33955,7 +33955,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" s="2" t="n">
@@ -33997,7 +33997,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" s="2" t="n">
@@ -34039,7 +34039,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" s="2" t="n">
@@ -34081,7 +34081,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" s="2" t="n">
@@ -34123,7 +34123,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" s="2" t="n">
@@ -34165,7 +34165,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" s="2" t="n">
@@ -34207,7 +34207,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" s="2" t="n">
@@ -34249,7 +34249,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" s="2" t="n">
@@ -34291,7 +34291,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" s="2" t="n">
@@ -34333,7 +34333,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" s="2" t="n">
@@ -34375,7 +34375,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" s="2" t="n">
@@ -34417,7 +34417,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" s="2" t="n">
@@ -34459,7 +34459,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" s="2" t="n">
@@ -34501,7 +34501,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" s="2" t="n">
@@ -34543,7 +34543,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" s="2" t="n">
@@ -34585,7 +34585,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" s="2" t="n">
@@ -34627,7 +34627,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" s="2" t="n">
@@ -34669,7 +34669,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" s="2" t="n">
@@ -34711,7 +34711,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" s="2" t="n">
@@ -34753,7 +34753,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" s="2" t="n">
@@ -34795,7 +34795,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" s="2" t="n">
@@ -34837,7 +34837,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" s="2" t="n">
@@ -34879,7 +34879,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" s="2" t="n">
@@ -34921,7 +34921,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" s="2" t="n">
@@ -34963,7 +34963,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" s="2" t="n">
@@ -35005,7 +35005,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" s="2" t="n">
@@ -35047,7 +35047,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" s="2" t="n">
@@ -35089,7 +35089,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" s="2" t="n">
@@ -35131,7 +35131,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" s="2" t="n">
@@ -35173,7 +35173,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" s="2" t="n">
@@ -35215,7 +35215,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" s="2" t="n">
@@ -35257,7 +35257,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" s="2" t="n">
@@ -35299,7 +35299,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" s="2" t="n">
@@ -35341,7 +35341,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" s="2" t="n">
@@ -35383,7 +35383,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" s="2" t="n">
@@ -35425,7 +35425,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" s="2" t="n">
@@ -35467,7 +35467,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" s="2" t="n">
@@ -35509,7 +35509,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" s="2" t="n">
@@ -35551,7 +35551,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" s="2" t="n">
@@ -35593,7 +35593,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" s="2" t="n">
@@ -35635,7 +35635,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" s="2" t="n">
@@ -35677,7 +35677,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" s="2" t="n">
@@ -35719,7 +35719,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" s="2" t="n">
@@ -35761,7 +35761,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" s="2" t="n">
@@ -35803,7 +35803,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" s="2" t="n">
@@ -35845,7 +35845,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" s="2" t="n">
@@ -35887,7 +35887,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" s="2" t="n">
@@ -35929,7 +35929,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" s="2" t="n">
@@ -35971,7 +35971,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" s="2" t="n">
@@ -36013,7 +36013,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" s="2" t="n">
@@ -36055,7 +36055,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" s="2" t="n">
@@ -36097,7 +36097,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" s="2" t="n">
@@ -36139,7 +36139,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" s="2" t="n">
@@ -36181,7 +36181,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" s="2" t="n">
@@ -36223,7 +36223,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" s="2" t="n">
@@ -36265,7 +36265,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
@@ -44656,7 +44656,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
@@ -44698,7 +44698,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
@@ -44740,7 +44740,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
@@ -44782,7 +44782,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" s="2" t="n">
@@ -44824,7 +44824,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
@@ -44866,7 +44866,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" s="2" t="n">
@@ -44908,7 +44908,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
@@ -44950,7 +44950,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
@@ -44992,7 +44992,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" s="2" t="n">
@@ -45034,7 +45034,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
@@ -45076,7 +45076,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
@@ -45118,7 +45118,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
@@ -45160,7 +45160,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="n">
@@ -45202,7 +45202,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="n">
@@ -45244,7 +45244,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="n">
@@ -45286,7 +45286,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" s="2" t="n">
@@ -45328,7 +45328,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" s="2" t="n">
@@ -45370,7 +45370,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" s="2" t="n">
@@ -45412,7 +45412,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" s="2" t="n">
@@ -45454,7 +45454,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" s="2" t="n">
@@ -45496,7 +45496,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" s="2" t="n">
@@ -45538,7 +45538,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" s="2" t="n">
@@ -45580,7 +45580,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" s="2" t="n">
@@ -45622,7 +45622,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" s="2" t="n">
@@ -45664,7 +45664,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" s="2" t="n">
@@ -45706,7 +45706,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" s="2" t="n">
@@ -45748,7 +45748,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" s="2" t="n">
@@ -45790,7 +45790,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" s="2" t="n">
@@ -45832,7 +45832,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" s="2" t="n">
@@ -45874,7 +45874,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" s="2" t="n">
@@ -45916,7 +45916,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" s="2" t="n">
@@ -45958,7 +45958,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" s="2" t="n">
@@ -46000,7 +46000,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" s="2" t="n">
@@ -46042,7 +46042,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" s="2" t="n">
@@ -46084,7 +46084,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" s="2" t="n">
@@ -46126,7 +46126,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" s="2" t="n">
@@ -46168,7 +46168,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" s="2" t="n">
@@ -46210,7 +46210,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" s="2" t="n">
@@ -46252,7 +46252,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" s="2" t="n">
@@ -46294,7 +46294,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" s="2" t="n">
@@ -46336,7 +46336,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" s="2" t="n">
@@ -46378,7 +46378,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" s="2" t="n">
@@ -46420,7 +46420,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" s="2" t="n">
@@ -46462,7 +46462,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" s="2" t="n">
@@ -46504,7 +46504,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" s="2" t="n">
@@ -46546,7 +46546,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" s="2" t="n">
@@ -46588,7 +46588,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" s="2" t="n">
@@ -46630,7 +46630,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" s="2" t="n">
@@ -46672,7 +46672,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" s="2" t="n">
@@ -46714,7 +46714,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" s="2" t="n">
@@ -46756,7 +46756,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" s="2" t="n">
@@ -46798,7 +46798,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" s="2" t="n">
@@ -46840,7 +46840,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" s="2" t="n">
@@ -46882,7 +46882,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" s="2" t="n">
@@ -46924,7 +46924,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" s="2" t="n">
@@ -46966,7 +46966,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" s="2" t="n">
@@ -47008,7 +47008,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" s="2" t="n">
@@ -47050,7 +47050,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" s="2" t="n">
@@ -47092,7 +47092,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" s="2" t="n">
@@ -47134,7 +47134,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" s="2" t="n">
@@ -47176,7 +47176,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" s="2" t="n">
@@ -47218,7 +47218,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" s="2" t="n">
@@ -47260,7 +47260,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" s="2" t="n">
@@ -47302,7 +47302,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" s="2" t="n">
@@ -47344,7 +47344,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" s="2" t="n">
@@ -47386,7 +47386,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" s="2" t="n">
@@ -47428,7 +47428,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" s="2" t="n">
@@ -47470,7 +47470,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" s="2" t="n">
@@ -47512,7 +47512,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" s="2" t="n">
@@ -47554,7 +47554,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" s="2" t="n">
@@ -47596,7 +47596,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" s="2" t="n">
@@ -47638,7 +47638,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" s="2" t="n">
@@ -47680,7 +47680,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" s="2" t="n">
@@ -47722,7 +47722,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" s="2" t="n">
@@ -47764,7 +47764,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" s="2" t="n">
@@ -47806,7 +47806,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" s="2" t="n">
@@ -47848,7 +47848,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" s="2" t="n">
@@ -47890,7 +47890,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" s="2" t="n">
@@ -47932,7 +47932,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" s="2" t="n">
@@ -47974,7 +47974,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" s="2" t="n">
@@ -48016,7 +48016,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" s="2" t="n">
@@ -48058,7 +48058,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" s="2" t="n">
@@ -48100,7 +48100,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" s="2" t="n">
@@ -48142,7 +48142,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" s="2" t="n">
@@ -48184,7 +48184,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" s="2" t="n">
@@ -48226,7 +48226,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" s="2" t="n">
@@ -48268,7 +48268,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" s="2" t="n">
@@ -48310,7 +48310,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" s="2" t="n">
@@ -48352,7 +48352,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" s="2" t="n">
@@ -48394,7 +48394,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" s="2" t="n">
@@ -48436,7 +48436,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" s="2" t="n">
@@ -48478,7 +48478,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" s="2" t="n">
@@ -48520,7 +48520,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" s="2" t="n">
@@ -48562,7 +48562,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" s="2" t="n">
@@ -48604,7 +48604,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" s="2" t="n">
@@ -48646,7 +48646,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" s="2" t="n">
@@ -48688,7 +48688,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
@@ -48797,7 +48797,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
@@ -48839,7 +48839,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
@@ -48881,7 +48881,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
@@ -48923,7 +48923,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" s="2" t="n">
@@ -48965,7 +48965,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
@@ -49007,7 +49007,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" s="2" t="n">
@@ -49049,7 +49049,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
@@ -49091,7 +49091,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
@@ -49133,7 +49133,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" s="2" t="n">
@@ -49175,7 +49175,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
@@ -49217,7 +49217,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
@@ -49259,7 +49259,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
@@ -49301,7 +49301,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="n">
@@ -49343,7 +49343,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="n">
@@ -49385,7 +49385,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="n">
@@ -49427,7 +49427,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" s="2" t="n">
@@ -49469,7 +49469,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" s="2" t="n">
@@ -49511,7 +49511,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" s="2" t="n">
@@ -49553,7 +49553,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" s="2" t="n">
@@ -49595,7 +49595,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" s="2" t="n">
@@ -49637,7 +49637,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" s="2" t="n">
@@ -49679,7 +49679,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" s="2" t="n">
@@ -49721,7 +49721,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" s="2" t="n">
@@ -49763,7 +49763,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" s="2" t="n">
@@ -49805,7 +49805,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" s="2" t="n">
@@ -49847,7 +49847,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" s="2" t="n">
@@ -49889,7 +49889,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" s="2" t="n">
@@ -49931,7 +49931,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" s="2" t="n">
@@ -49973,7 +49973,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" s="2" t="n">
@@ -50015,7 +50015,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" s="2" t="n">
@@ -50057,7 +50057,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" s="2" t="n">
@@ -50099,7 +50099,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" s="2" t="n">
@@ -50141,7 +50141,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" s="2" t="n">
@@ -50183,7 +50183,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" s="2" t="n">
@@ -50225,7 +50225,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" s="2" t="n">
@@ -50267,7 +50267,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" s="2" t="n">
@@ -50309,7 +50309,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" s="2" t="n">
@@ -50351,7 +50351,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" s="2" t="n">
@@ -50393,7 +50393,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" s="2" t="n">
@@ -50435,7 +50435,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" s="2" t="n">
@@ -50477,7 +50477,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" s="2" t="n">
@@ -50519,7 +50519,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" s="2" t="n">
@@ -50561,7 +50561,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" s="2" t="n">
@@ -50603,7 +50603,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" s="2" t="n">
@@ -50645,7 +50645,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" s="2" t="n">
@@ -50687,7 +50687,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" s="2" t="n">
@@ -50729,7 +50729,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" s="2" t="n">
@@ -50771,7 +50771,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" s="2" t="n">
@@ -50813,7 +50813,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" s="2" t="n">
@@ -50855,7 +50855,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" s="2" t="n">
@@ -50897,7 +50897,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" s="2" t="n">
@@ -50939,7 +50939,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" s="2" t="n">
@@ -50981,7 +50981,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" s="2" t="n">
@@ -51023,7 +51023,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" s="2" t="n">
@@ -51065,7 +51065,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" s="2" t="n">
@@ -51107,7 +51107,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" s="2" t="n">
@@ -51149,7 +51149,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
@@ -59204,7 +59204,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
@@ -59246,7 +59246,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
@@ -59288,7 +59288,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
@@ -59330,7 +59330,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" s="2" t="n">
@@ -59372,7 +59372,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
@@ -59414,7 +59414,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" s="2" t="n">
@@ -59456,7 +59456,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
@@ -59498,7 +59498,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
@@ -59540,7 +59540,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" s="2" t="n">
@@ -59582,7 +59582,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
@@ -59624,7 +59624,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
@@ -59666,7 +59666,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
@@ -59708,7 +59708,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="n">
@@ -59750,7 +59750,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="n">
@@ -59792,7 +59792,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="n">
@@ -59834,7 +59834,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" s="2" t="n">
@@ -59876,7 +59876,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" s="2" t="n">
@@ -59918,7 +59918,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" s="2" t="n">
@@ -59960,7 +59960,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" s="2" t="n">
@@ -60002,7 +60002,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" s="2" t="n">
@@ -60044,7 +60044,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" s="2" t="n">
@@ -60086,7 +60086,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" s="2" t="n">
@@ -60128,7 +60128,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" s="2" t="n">
@@ -60170,7 +60170,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" s="2" t="n">
@@ -60212,7 +60212,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" s="2" t="n">
@@ -60254,7 +60254,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" s="2" t="n">
@@ -60296,7 +60296,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" s="2" t="n">
@@ -60338,7 +60338,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" s="2" t="n">
@@ -60380,7 +60380,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" s="2" t="n">
@@ -60422,7 +60422,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" s="2" t="n">
@@ -60464,7 +60464,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" s="2" t="n">
@@ -60506,7 +60506,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" s="2" t="n">
@@ -60548,7 +60548,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" s="2" t="n">
@@ -60590,7 +60590,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" s="2" t="n">
@@ -60632,7 +60632,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" s="2" t="n">
@@ -60674,7 +60674,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" s="2" t="n">
@@ -60716,7 +60716,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" s="2" t="n">
@@ -60758,7 +60758,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" s="2" t="n">
@@ -60800,7 +60800,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" s="2" t="n">
@@ -60842,7 +60842,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" s="2" t="n">
@@ -60884,7 +60884,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" s="2" t="n">
@@ -60926,7 +60926,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" s="2" t="n">
@@ -60968,7 +60968,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" s="2" t="n">
@@ -61010,7 +61010,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" s="2" t="n">
@@ -61052,7 +61052,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" s="2" t="n">
@@ -61094,7 +61094,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" s="2" t="n">
@@ -61136,7 +61136,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" s="2" t="n">
@@ -61178,7 +61178,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" s="2" t="n">
@@ -61220,7 +61220,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" s="2" t="n">
@@ -61262,7 +61262,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" s="2" t="n">
@@ -61304,7 +61304,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" s="2" t="n">
@@ -61346,7 +61346,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" s="2" t="n">
@@ -61388,7 +61388,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" s="2" t="n">
@@ -61430,7 +61430,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" s="2" t="n">
@@ -61472,7 +61472,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" s="2" t="n">
@@ -61514,7 +61514,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" s="2" t="n">
@@ -61556,7 +61556,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" s="2" t="n">
@@ -61598,7 +61598,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" s="2" t="n">
@@ -61640,7 +61640,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" s="2" t="n">
@@ -61682,7 +61682,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" s="2" t="n">
@@ -61724,7 +61724,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" s="2" t="n">
@@ -61766,7 +61766,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" s="2" t="n">
@@ -61808,7 +61808,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" s="2" t="n">
@@ -61850,7 +61850,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" s="2" t="n">
@@ -61892,7 +61892,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" s="2" t="n">
@@ -61934,7 +61934,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" s="2" t="n">
@@ -61976,7 +61976,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" s="2" t="n">
@@ -62018,7 +62018,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" s="2" t="n">
@@ -62060,7 +62060,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" s="2" t="n">
@@ -62102,7 +62102,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" s="2" t="n">
@@ -62144,7 +62144,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" s="2" t="n">
@@ -62186,7 +62186,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" s="2" t="n">
@@ -62228,7 +62228,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" s="2" t="n">
@@ -62270,7 +62270,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" s="2" t="n">
@@ -62312,7 +62312,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" s="2" t="n">
@@ -62354,7 +62354,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" s="2" t="n">
@@ -62396,7 +62396,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" s="2" t="n">
@@ -62438,7 +62438,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" s="2" t="n">
@@ -62480,7 +62480,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" s="2" t="n">
@@ -62522,7 +62522,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" s="2" t="n">
@@ -62564,7 +62564,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" s="2" t="n">
@@ -62606,7 +62606,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" s="2" t="n">
@@ -62648,7 +62648,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" s="2" t="n">
@@ -62690,7 +62690,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" s="2" t="n">
@@ -62732,7 +62732,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" s="2" t="n">
@@ -62774,7 +62774,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" s="2" t="n">
@@ -62816,7 +62816,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" s="2" t="n">
@@ -62858,7 +62858,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" s="2" t="n">
@@ -62900,7 +62900,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" s="2" t="n">
@@ -62942,7 +62942,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" s="2" t="n">
@@ -62984,7 +62984,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" s="2" t="n">
@@ -63026,7 +63026,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" s="2" t="n">
@@ -63068,7 +63068,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
@@ -66671,7 +66671,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
@@ -66713,7 +66713,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
@@ -66755,7 +66755,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
@@ -66797,7 +66797,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" s="2" t="n">
@@ -66839,7 +66839,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
@@ -66881,7 +66881,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" s="2" t="n">
@@ -66923,7 +66923,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
@@ -66965,7 +66965,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
@@ -67007,7 +67007,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" s="2" t="n">
@@ -67049,7 +67049,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
@@ -67091,7 +67091,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
@@ -67133,7 +67133,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
@@ -67175,7 +67175,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="n">
@@ -67217,7 +67217,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="n">
@@ -67259,7 +67259,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="n">
@@ -67301,7 +67301,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" s="2" t="n">
@@ -67343,7 +67343,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" s="2" t="n">
@@ -67385,7 +67385,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" s="2" t="n">
@@ -67427,7 +67427,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" s="2" t="n">
@@ -67469,7 +67469,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" s="2" t="n">
@@ -67511,7 +67511,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" s="2" t="n">
@@ -67553,7 +67553,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" s="2" t="n">
@@ -67595,7 +67595,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" s="2" t="n">
@@ -67637,7 +67637,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" s="2" t="n">
@@ -67679,7 +67679,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" s="2" t="n">
@@ -67721,7 +67721,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" s="2" t="n">
@@ -67763,7 +67763,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" s="2" t="n">
@@ -67805,7 +67805,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" s="2" t="n">
@@ -67847,7 +67847,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" s="2" t="n">
@@ -67889,7 +67889,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" s="2" t="n">
@@ -67931,7 +67931,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" s="2" t="n">
@@ -67973,7 +67973,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" s="2" t="n">
@@ -68015,7 +68015,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" s="2" t="n">
@@ -68057,7 +68057,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" s="2" t="n">
@@ -68099,7 +68099,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" s="2" t="n">
@@ -68141,7 +68141,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" s="2" t="n">
@@ -68183,7 +68183,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" s="2" t="n">
@@ -68225,7 +68225,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" s="2" t="n">
@@ -68267,7 +68267,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" s="2" t="n">
@@ -68309,7 +68309,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
